--- a/biology/Zoologie/Aigle_à_ventre_roux/Aigle_à_ventre_roux.xlsx
+++ b/biology/Zoologie/Aigle_à_ventre_roux/Aigle_à_ventre_roux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aigle_%C3%A0_ventre_roux</t>
+          <t>Aigle_à_ventre_roux</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lophotriorchis kienerii
 L’Aigle à ventre roux (Lophotriorchis kienerii) est une espèce d'oiseaux de proie de la famille des Accipitridae. C'est la seule espèce du genre Lophotriorchis.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Aigle_%C3%A0_ventre_roux</t>
+          <t>Aigle_à_ventre_roux</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un petit aigle de 54 à 60 cm de longueur. Il a de grandes ailes arrondies qu'il tient écartées au repos et une large queue courte.
 L'adulte a le dos et la tête noirs. Le gorge et la poitrine sont blanches, la queue et les rémiges sont blanches rayées de noir. Le reste de la face ventrale est brun. Les deux sexes sont similaires.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Aigle_%C3%A0_ventre_roux</t>
+          <t>Aigle_à_ventre_roux</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Alimentation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se nourrit principalement d'oiseaux et de petits mammifères.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aigle_%C3%A0_ventre_roux</t>
+          <t>Aigle_à_ventre_roux</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Reproduction</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nid, fait de grandes branches, est construit dans un arbre. La femelle y pond un seul œuf.
 </t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aigle_%C3%A0_ventre_roux</t>
+          <t>Aigle_à_ventre_roux</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">On le trouve dans les régions tropicales d'Asie. Il vit au Sri Lanka, dans le Sud-Ouest et le Nord-Est de l'Inde, dans le Sud de l'Asie et en Indonésie.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Aigle_%C3%A0_ventre_roux</t>
+          <t>Aigle_à_ventre_roux</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Les régions forestières de l'Asie tropicale constitue son habitat naturel.
 </t>
@@ -651,7 +673,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Aigle_%C3%A0_ventre_roux</t>
+          <t>Aigle_à_ventre_roux</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -669,7 +691,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>D'après Alan P. Peterson, cette espèce est constituée des deux sous-espèces suivantes :
 Hieraaetus kienerii kienerii (de Sparre, 1835)
